--- a/data/step_montage_table.xlsx
+++ b/data/step_montage_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-48.50551290042857</v>
+        <v>-47.45722373034649</v>
       </c>
       <c r="C3" t="n">
-        <v>-38.50551290042857</v>
+        <v>-37.45722373034649</v>
       </c>
       <c r="D3" t="n">
-        <v>-28.50551290042857</v>
+        <v>-27.45722373034649</v>
       </c>
       <c r="E3" t="n">
-        <v>-23.50551290042857</v>
+        <v>-22.45722373034649</v>
       </c>
       <c r="F3" t="n">
-        <v>-23.50551290042857</v>
+        <v>-22.45722373034649</v>
       </c>
       <c r="G3" t="n">
-        <v>-23.50551290042857</v>
+        <v>-22.45722373034649</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.50551290042857</v>
+        <v>-22.45722373034649</v>
       </c>
       <c r="I3" t="n">
-        <v>-23.50551290042857</v>
+        <v>-22.45722373034649</v>
       </c>
       <c r="J3" t="n">
-        <v>-18.50551290042857</v>
+        <v>-17.45722373034649</v>
       </c>
       <c r="K3" t="n">
-        <v>-8.50551290042857</v>
+        <v>-7.457223730346492</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49448709957143</v>
+        <v>2.542776269653508</v>
       </c>
       <c r="M3" t="n">
-        <v>21.49448709957143</v>
+        <v>22.54277626965351</v>
       </c>
       <c r="N3" t="n">
-        <v>41.49448709957143</v>
+        <v>42.54277626965351</v>
       </c>
       <c r="O3" t="n">
-        <v>61.49448709957143</v>
+        <v>62.54277626965351</v>
       </c>
     </row>
     <row r="4">
@@ -622,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.709876479761318</v>
+        <v>2.723758260825445</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6876970354138</v>
+        <v>1.710422563765221</v>
       </c>
       <c r="H4" t="n">
-        <v>2.848657822915093</v>
+        <v>2.868511180811435</v>
       </c>
       <c r="I4" t="n">
-        <v>1.831612757354802</v>
+        <v>1.849892545914591</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.004</v>
+        <v>69.699</v>
       </c>
       <c r="C5" t="n">
-        <v>59.326</v>
+        <v>64.544</v>
       </c>
       <c r="D5" t="n">
-        <v>56.914</v>
+        <v>60.08</v>
       </c>
       <c r="E5" t="n">
-        <v>55.797</v>
+        <v>58.078</v>
       </c>
       <c r="F5" t="n">
-        <v>124.663</v>
+        <v>117.529</v>
       </c>
       <c r="G5" t="n">
-        <v>85.78</v>
+        <v>84.962</v>
       </c>
       <c r="H5" t="n">
-        <v>129.575</v>
+        <v>121.82</v>
       </c>
       <c r="I5" t="n">
-        <v>91.596</v>
+        <v>89.76300000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>54.733</v>
+        <v>56.214</v>
       </c>
       <c r="K5" t="n">
-        <v>52.752</v>
+        <v>52.856</v>
       </c>
       <c r="L5" t="n">
-        <v>50.946</v>
+        <v>49.928</v>
       </c>
       <c r="M5" t="n">
-        <v>47.776</v>
+        <v>45.096</v>
       </c>
       <c r="N5" t="n">
-        <v>45.084</v>
+        <v>41.294</v>
       </c>
       <c r="O5" t="n">
-        <v>42.769</v>
+        <v>38.231</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.419</v>
+        <v>34.194</v>
       </c>
       <c r="C6" t="n">
-        <v>29.105</v>
+        <v>31.665</v>
       </c>
       <c r="D6" t="n">
-        <v>27.922</v>
+        <v>29.475</v>
       </c>
       <c r="E6" t="n">
-        <v>27.374</v>
+        <v>28.493</v>
       </c>
       <c r="F6" t="n">
-        <v>61.16</v>
+        <v>57.66</v>
       </c>
       <c r="G6" t="n">
-        <v>42.084</v>
+        <v>41.682</v>
       </c>
       <c r="H6" t="n">
-        <v>63.569</v>
+        <v>59.765</v>
       </c>
       <c r="I6" t="n">
-        <v>44.937</v>
+        <v>44.038</v>
       </c>
       <c r="J6" t="n">
-        <v>26.852</v>
+        <v>27.579</v>
       </c>
       <c r="K6" t="n">
-        <v>25.88</v>
+        <v>25.931</v>
       </c>
       <c r="L6" t="n">
-        <v>24.994</v>
+        <v>24.495</v>
       </c>
       <c r="M6" t="n">
-        <v>23.439</v>
+        <v>22.124</v>
       </c>
       <c r="N6" t="n">
-        <v>22.118</v>
+        <v>20.259</v>
       </c>
       <c r="O6" t="n">
-        <v>20.982</v>
+        <v>18.756</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1889.899</v>
+        <v>2124.445</v>
       </c>
       <c r="C7" t="n">
-        <v>1808.273</v>
+        <v>1967.319</v>
       </c>
       <c r="D7" t="n">
-        <v>1734.754</v>
+        <v>1831.255</v>
       </c>
       <c r="E7" t="n">
-        <v>1700.708</v>
+        <v>1770.233</v>
       </c>
       <c r="F7" t="n">
-        <v>1402.19</v>
+        <v>1315.211</v>
       </c>
       <c r="G7" t="n">
-        <v>1549.211</v>
+        <v>1514.05</v>
       </c>
       <c r="H7" t="n">
-        <v>1386.436</v>
+        <v>1294.437</v>
       </c>
       <c r="I7" t="n">
-        <v>1524.269</v>
+        <v>1479.005</v>
       </c>
       <c r="J7" t="n">
-        <v>1668.277</v>
+        <v>1713.418</v>
       </c>
       <c r="K7" t="n">
-        <v>1607.896</v>
+        <v>1611.065</v>
       </c>
       <c r="L7" t="n">
-        <v>1552.848</v>
+        <v>1521.819</v>
       </c>
       <c r="M7" t="n">
-        <v>1456.226</v>
+        <v>1374.539</v>
       </c>
       <c r="N7" t="n">
-        <v>1374.173</v>
+        <v>1258.653</v>
       </c>
       <c r="O7" t="n">
-        <v>1303.611</v>
+        <v>1165.291</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.77</v>
+        <v>25.596</v>
       </c>
       <c r="C8" t="n">
-        <v>21.787</v>
+        <v>23.703</v>
       </c>
       <c r="D8" t="n">
-        <v>20.901</v>
+        <v>22.064</v>
       </c>
       <c r="E8" t="n">
-        <v>20.491</v>
+        <v>21.329</v>
       </c>
       <c r="F8" t="n">
-        <v>45.782</v>
+        <v>43.162</v>
       </c>
       <c r="G8" t="n">
-        <v>31.502</v>
+        <v>31.201</v>
       </c>
       <c r="H8" t="n">
-        <v>47.585</v>
+        <v>44.738</v>
       </c>
       <c r="I8" t="n">
-        <v>33.638</v>
+        <v>32.965</v>
       </c>
       <c r="J8" t="n">
-        <v>20.1</v>
+        <v>20.645</v>
       </c>
       <c r="K8" t="n">
-        <v>19.373</v>
+        <v>19.411</v>
       </c>
       <c r="L8" t="n">
-        <v>18.709</v>
+        <v>18.336</v>
       </c>
       <c r="M8" t="n">
-        <v>17.545</v>
+        <v>16.561</v>
       </c>
       <c r="N8" t="n">
-        <v>16.557</v>
+        <v>15.165</v>
       </c>
       <c r="O8" t="n">
-        <v>15.706</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.071</v>
+        <v>4.511</v>
       </c>
       <c r="C9" t="n">
-        <v>5.301</v>
+        <v>4.872</v>
       </c>
       <c r="D9" t="n">
-        <v>5.525</v>
+        <v>5.234</v>
       </c>
       <c r="E9" t="n">
-        <v>5.636</v>
+        <v>5.415</v>
       </c>
       <c r="F9" t="n">
-        <v>6.838</v>
+        <v>7.291</v>
       </c>
       <c r="G9" t="n">
-        <v>6.188</v>
+        <v>6.332</v>
       </c>
       <c r="H9" t="n">
-        <v>6.916</v>
+        <v>7.408</v>
       </c>
       <c r="I9" t="n">
-        <v>6.289</v>
+        <v>6.482</v>
       </c>
       <c r="J9" t="n">
-        <v>5.746</v>
+        <v>5.594</v>
       </c>
       <c r="K9" t="n">
-        <v>5.962</v>
+        <v>5.95</v>
       </c>
       <c r="L9" t="n">
-        <v>6.174</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>6.584</v>
+        <v>6.976</v>
       </c>
       <c r="N9" t="n">
-        <v>6.977</v>
+        <v>7.619</v>
       </c>
       <c r="O9" t="n">
-        <v>7.356</v>
+        <v>8.231</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.003</v>
+        <v>6.229</v>
       </c>
       <c r="C10" t="n">
-        <v>7.319</v>
+        <v>6.727</v>
       </c>
       <c r="D10" t="n">
-        <v>7.63</v>
+        <v>7.227</v>
       </c>
       <c r="E10" t="n">
-        <v>7.783</v>
+        <v>7.477</v>
       </c>
       <c r="F10" t="n">
-        <v>9.443</v>
+        <v>10.069</v>
       </c>
       <c r="G10" t="n">
-        <v>8.545999999999999</v>
+        <v>8.744</v>
       </c>
       <c r="H10" t="n">
-        <v>9.551</v>
+        <v>10.232</v>
       </c>
       <c r="I10" t="n">
-        <v>8.686</v>
+        <v>8.952</v>
       </c>
       <c r="J10" t="n">
-        <v>7.935</v>
+        <v>7.725</v>
       </c>
       <c r="K10" t="n">
-        <v>8.233000000000001</v>
+        <v>8.217000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>8.525</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>9.092000000000001</v>
+        <v>9.634</v>
       </c>
       <c r="N10" t="n">
-        <v>9.635999999999999</v>
+        <v>10.523</v>
       </c>
       <c r="O10" t="n">
-        <v>10.159</v>
+        <v>11.369</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.648</v>
+        <v>3.989</v>
       </c>
       <c r="C11" t="n">
-        <v>2.768</v>
+        <v>4.307</v>
       </c>
       <c r="D11" t="n">
-        <v>2.885</v>
+        <v>4.628</v>
       </c>
       <c r="E11" t="n">
-        <v>2.943</v>
+        <v>4.787</v>
       </c>
       <c r="F11" t="n">
-        <v>3.57</v>
+        <v>6.446</v>
       </c>
       <c r="G11" t="n">
-        <v>3.231</v>
+        <v>5.598</v>
       </c>
       <c r="H11" t="n">
-        <v>3.611</v>
+        <v>6.55</v>
       </c>
       <c r="I11" t="n">
-        <v>3.284</v>
+        <v>5.731</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4.946</v>
       </c>
       <c r="K11" t="n">
-        <v>3.113</v>
+        <v>5.261</v>
       </c>
       <c r="L11" t="n">
-        <v>3.223</v>
+        <v>5.57</v>
       </c>
       <c r="M11" t="n">
-        <v>3.437</v>
+        <v>6.167</v>
       </c>
       <c r="N11" t="n">
-        <v>3.643</v>
+        <v>6.736</v>
       </c>
       <c r="O11" t="n">
-        <v>3.84</v>
+        <v>7.277</v>
       </c>
     </row>
     <row r="12">
@@ -1002,46 +1002,95 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.56</v>
+        <v>5.298</v>
       </c>
       <c r="C12" t="n">
-        <v>17.309</v>
+        <v>5.721</v>
       </c>
       <c r="D12" t="n">
-        <v>18.046</v>
+        <v>6.147</v>
       </c>
       <c r="E12" t="n">
-        <v>18.408</v>
+        <v>6.359</v>
       </c>
       <c r="F12" t="n">
-        <v>22.346</v>
+        <v>8.563000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>20.216</v>
+        <v>7.437</v>
       </c>
       <c r="H12" t="n">
-        <v>22.601</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>20.548</v>
+        <v>7.613</v>
       </c>
       <c r="J12" t="n">
-        <v>18.767</v>
+        <v>6.57</v>
       </c>
       <c r="K12" t="n">
-        <v>19.475</v>
+        <v>6.988</v>
       </c>
       <c r="L12" t="n">
-        <v>20.168</v>
+        <v>7.399</v>
       </c>
       <c r="M12" t="n">
-        <v>21.513</v>
+        <v>8.193</v>
       </c>
       <c r="N12" t="n">
-        <v>22.804</v>
+        <v>8.949</v>
       </c>
       <c r="O12" t="n">
-        <v>24.046</v>
+        <v>9.667999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.115</v>
       </c>
     </row>
   </sheetData>

--- a/data/step_montage_table.xlsx
+++ b/data/step_montage_table.xlsx
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.45722373034649</v>
+        <v>-50.75184683631875</v>
       </c>
       <c r="C3" t="n">
-        <v>-37.45722373034649</v>
+        <v>-40.75184683631875</v>
       </c>
       <c r="D3" t="n">
-        <v>-27.45722373034649</v>
+        <v>-30.75184683631874</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.45722373034649</v>
+        <v>-25.75184683631874</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.45722373034649</v>
+        <v>-25.75184683631874</v>
       </c>
       <c r="G3" t="n">
-        <v>-22.45722373034649</v>
+        <v>-25.75184683631874</v>
       </c>
       <c r="H3" t="n">
-        <v>-22.45722373034649</v>
+        <v>-25.75184683631874</v>
       </c>
       <c r="I3" t="n">
-        <v>-22.45722373034649</v>
+        <v>-25.75184683631874</v>
       </c>
       <c r="J3" t="n">
-        <v>-17.45722373034649</v>
+        <v>-20.75184683631874</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.457223730346492</v>
+        <v>-10.75184683631874</v>
       </c>
       <c r="L3" t="n">
-        <v>2.542776269653508</v>
+        <v>-0.7518468363187445</v>
       </c>
       <c r="M3" t="n">
-        <v>22.54277626965351</v>
+        <v>19.24815316368126</v>
       </c>
       <c r="N3" t="n">
-        <v>42.54277626965351</v>
+        <v>39.24815316368125</v>
       </c>
       <c r="O3" t="n">
-        <v>62.54277626965351</v>
+        <v>59.24815316368125</v>
       </c>
     </row>
     <row r="4">
@@ -622,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.723758260825445</v>
+        <v>2.730995758697492</v>
       </c>
       <c r="G4" t="n">
-        <v>1.710422563765221</v>
+        <v>1.722369395643906</v>
       </c>
       <c r="H4" t="n">
-        <v>2.868511180811435</v>
+        <v>2.878921494922184</v>
       </c>
       <c r="I4" t="n">
-        <v>1.849892545914591</v>
+        <v>1.859543089110336</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.699</v>
+        <v>77.11499999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>64.544</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>60.08</v>
+        <v>65.663</v>
       </c>
       <c r="E5" t="n">
-        <v>58.078</v>
+        <v>63.272</v>
       </c>
       <c r="F5" t="n">
-        <v>117.529</v>
+        <v>123.12</v>
       </c>
       <c r="G5" t="n">
-        <v>84.962</v>
+        <v>90.684</v>
       </c>
       <c r="H5" t="n">
-        <v>121.82</v>
+        <v>127.508</v>
       </c>
       <c r="I5" t="n">
-        <v>89.76300000000001</v>
+        <v>95.41</v>
       </c>
       <c r="J5" t="n">
-        <v>56.214</v>
+        <v>61.048</v>
       </c>
       <c r="K5" t="n">
-        <v>52.856</v>
+        <v>57.053</v>
       </c>
       <c r="L5" t="n">
-        <v>49.928</v>
+        <v>53.586</v>
       </c>
       <c r="M5" t="n">
-        <v>45.096</v>
+        <v>47.922</v>
       </c>
       <c r="N5" t="n">
-        <v>41.294</v>
+        <v>43.528</v>
       </c>
       <c r="O5" t="n">
-        <v>38.231</v>
+        <v>40.038</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.194</v>
+        <v>37.833</v>
       </c>
       <c r="C6" t="n">
-        <v>31.665</v>
+        <v>34.828</v>
       </c>
       <c r="D6" t="n">
-        <v>29.475</v>
+        <v>32.214</v>
       </c>
       <c r="E6" t="n">
-        <v>28.493</v>
+        <v>31.041</v>
       </c>
       <c r="F6" t="n">
-        <v>57.66</v>
+        <v>60.403</v>
       </c>
       <c r="G6" t="n">
-        <v>41.682</v>
+        <v>44.49</v>
       </c>
       <c r="H6" t="n">
-        <v>59.765</v>
+        <v>62.555</v>
       </c>
       <c r="I6" t="n">
-        <v>44.038</v>
+        <v>46.808</v>
       </c>
       <c r="J6" t="n">
-        <v>27.579</v>
+        <v>29.95</v>
       </c>
       <c r="K6" t="n">
-        <v>25.931</v>
+        <v>27.99</v>
       </c>
       <c r="L6" t="n">
-        <v>24.495</v>
+        <v>26.289</v>
       </c>
       <c r="M6" t="n">
-        <v>22.124</v>
+        <v>23.511</v>
       </c>
       <c r="N6" t="n">
-        <v>20.259</v>
+        <v>21.355</v>
       </c>
       <c r="O6" t="n">
-        <v>18.756</v>
+        <v>19.643</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2124.445</v>
+        <v>2350.487</v>
       </c>
       <c r="C7" t="n">
-        <v>1967.319</v>
+        <v>2163.795</v>
       </c>
       <c r="D7" t="n">
-        <v>1831.255</v>
+        <v>2001.426</v>
       </c>
       <c r="E7" t="n">
-        <v>1770.233</v>
+        <v>1928.548</v>
       </c>
       <c r="F7" t="n">
-        <v>1315.211</v>
+        <v>1374.126</v>
       </c>
       <c r="G7" t="n">
-        <v>1514.05</v>
+        <v>1604.809</v>
       </c>
       <c r="H7" t="n">
-        <v>1294.437</v>
+        <v>1349.977</v>
       </c>
       <c r="I7" t="n">
-        <v>1479.005</v>
+        <v>1563.891</v>
       </c>
       <c r="J7" t="n">
-        <v>1713.418</v>
+        <v>1860.76</v>
       </c>
       <c r="K7" t="n">
-        <v>1611.065</v>
+        <v>1738.991</v>
       </c>
       <c r="L7" t="n">
-        <v>1521.819</v>
+        <v>1633.316</v>
       </c>
       <c r="M7" t="n">
-        <v>1374.539</v>
+        <v>1460.676</v>
       </c>
       <c r="N7" t="n">
-        <v>1258.653</v>
+        <v>1326.745</v>
       </c>
       <c r="O7" t="n">
-        <v>1165.291</v>
+        <v>1220.369</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.596</v>
+        <v>31.467</v>
       </c>
       <c r="C8" t="n">
-        <v>23.703</v>
+        <v>28.968</v>
       </c>
       <c r="D8" t="n">
-        <v>22.064</v>
+        <v>26.794</v>
       </c>
       <c r="E8" t="n">
-        <v>21.329</v>
+        <v>25.818</v>
       </c>
       <c r="F8" t="n">
-        <v>43.162</v>
+        <v>50.24</v>
       </c>
       <c r="G8" t="n">
-        <v>31.201</v>
+        <v>37.004</v>
       </c>
       <c r="H8" t="n">
-        <v>44.738</v>
+        <v>52.029</v>
       </c>
       <c r="I8" t="n">
-        <v>32.965</v>
+        <v>38.932</v>
       </c>
       <c r="J8" t="n">
-        <v>20.645</v>
+        <v>24.911</v>
       </c>
       <c r="K8" t="n">
-        <v>19.411</v>
+        <v>23.28</v>
       </c>
       <c r="L8" t="n">
-        <v>18.336</v>
+        <v>21.866</v>
       </c>
       <c r="M8" t="n">
-        <v>16.561</v>
+        <v>19.555</v>
       </c>
       <c r="N8" t="n">
-        <v>15.165</v>
+        <v>17.762</v>
       </c>
       <c r="O8" t="n">
-        <v>14.04</v>
+        <v>16.338</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.511</v>
+        <v>4.077</v>
       </c>
       <c r="C9" t="n">
-        <v>4.872</v>
+        <v>4.429</v>
       </c>
       <c r="D9" t="n">
-        <v>5.234</v>
+        <v>4.789</v>
       </c>
       <c r="E9" t="n">
-        <v>5.415</v>
+        <v>4.97</v>
       </c>
       <c r="F9" t="n">
-        <v>7.291</v>
+        <v>6.978</v>
       </c>
       <c r="G9" t="n">
-        <v>6.332</v>
+        <v>5.973</v>
       </c>
       <c r="H9" t="n">
-        <v>7.408</v>
+        <v>7.103</v>
       </c>
       <c r="I9" t="n">
-        <v>6.482</v>
+        <v>6.13</v>
       </c>
       <c r="J9" t="n">
-        <v>5.594</v>
+        <v>5.151</v>
       </c>
       <c r="K9" t="n">
-        <v>5.95</v>
+        <v>5.512</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>5.869</v>
       </c>
       <c r="M9" t="n">
-        <v>6.976</v>
+        <v>6.564</v>
       </c>
       <c r="N9" t="n">
-        <v>7.619</v>
+        <v>7.227</v>
       </c>
       <c r="O9" t="n">
-        <v>8.231</v>
+        <v>7.858</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.229</v>
+        <v>5.629</v>
       </c>
       <c r="C10" t="n">
-        <v>6.727</v>
+        <v>6.116</v>
       </c>
       <c r="D10" t="n">
-        <v>7.227</v>
+        <v>6.612</v>
       </c>
       <c r="E10" t="n">
-        <v>7.477</v>
+        <v>6.862</v>
       </c>
       <c r="F10" t="n">
-        <v>10.069</v>
+        <v>9.637</v>
       </c>
       <c r="G10" t="n">
-        <v>8.744</v>
+        <v>8.249000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>10.232</v>
+        <v>9.81</v>
       </c>
       <c r="I10" t="n">
-        <v>8.952</v>
+        <v>8.465</v>
       </c>
       <c r="J10" t="n">
-        <v>7.725</v>
+        <v>7.113</v>
       </c>
       <c r="K10" t="n">
-        <v>8.217000000000001</v>
+        <v>7.612</v>
       </c>
       <c r="L10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.105</v>
       </c>
       <c r="M10" t="n">
-        <v>9.634</v>
+        <v>9.065</v>
       </c>
       <c r="N10" t="n">
-        <v>10.523</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>11.369</v>
+        <v>10.854</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.989</v>
+        <v>3.605</v>
       </c>
       <c r="C11" t="n">
-        <v>4.307</v>
+        <v>3.916</v>
       </c>
       <c r="D11" t="n">
-        <v>4.628</v>
+        <v>4.234</v>
       </c>
       <c r="E11" t="n">
-        <v>4.787</v>
+        <v>4.394</v>
       </c>
       <c r="F11" t="n">
-        <v>6.446</v>
+        <v>6.169</v>
       </c>
       <c r="G11" t="n">
-        <v>5.598</v>
+        <v>5.281</v>
       </c>
       <c r="H11" t="n">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="I11" t="n">
-        <v>5.731</v>
+        <v>5.42</v>
       </c>
       <c r="J11" t="n">
-        <v>4.946</v>
+        <v>4.554</v>
       </c>
       <c r="K11" t="n">
-        <v>5.261</v>
+        <v>4.873</v>
       </c>
       <c r="L11" t="n">
-        <v>5.57</v>
+        <v>5.189</v>
       </c>
       <c r="M11" t="n">
-        <v>6.167</v>
+        <v>5.803</v>
       </c>
       <c r="N11" t="n">
-        <v>6.736</v>
+        <v>6.39</v>
       </c>
       <c r="O11" t="n">
-        <v>7.277</v>
+        <v>6.948</v>
       </c>
     </row>
     <row r="12">
@@ -1002,46 +1002,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.298</v>
+        <v>4.788</v>
       </c>
       <c r="C12" t="n">
-        <v>5.721</v>
+        <v>5.201</v>
       </c>
       <c r="D12" t="n">
-        <v>6.147</v>
+        <v>5.624</v>
       </c>
       <c r="E12" t="n">
-        <v>6.359</v>
+        <v>5.836</v>
       </c>
       <c r="F12" t="n">
-        <v>8.563000000000001</v>
+        <v>8.195</v>
       </c>
       <c r="G12" t="n">
-        <v>7.437</v>
+        <v>7.015</v>
       </c>
       <c r="H12" t="n">
-        <v>8.701000000000001</v>
+        <v>8.342000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>7.613</v>
+        <v>7.199</v>
       </c>
       <c r="J12" t="n">
-        <v>6.57</v>
+        <v>6.049</v>
       </c>
       <c r="K12" t="n">
-        <v>6.988</v>
+        <v>6.473</v>
       </c>
       <c r="L12" t="n">
-        <v>7.399</v>
+        <v>6.893</v>
       </c>
       <c r="M12" t="n">
-        <v>8.193</v>
+        <v>7.709</v>
       </c>
       <c r="N12" t="n">
-        <v>8.949</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>9.667999999999999</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="13">
@@ -1051,46 +1051,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.16</v>
+        <v>1.049</v>
       </c>
       <c r="C13" t="n">
-        <v>1.253</v>
+        <v>1.139</v>
       </c>
       <c r="D13" t="n">
-        <v>1.346</v>
+        <v>1.231</v>
       </c>
       <c r="E13" t="n">
-        <v>1.392</v>
+        <v>1.278</v>
       </c>
       <c r="F13" t="n">
-        <v>1.874</v>
+        <v>1.794</v>
       </c>
       <c r="G13" t="n">
-        <v>1.628</v>
+        <v>1.536</v>
       </c>
       <c r="H13" t="n">
-        <v>1.904</v>
+        <v>1.826</v>
       </c>
       <c r="I13" t="n">
-        <v>1.667</v>
+        <v>1.576</v>
       </c>
       <c r="J13" t="n">
-        <v>1.438</v>
+        <v>1.325</v>
       </c>
       <c r="K13" t="n">
-        <v>1.53</v>
+        <v>1.417</v>
       </c>
       <c r="L13" t="n">
-        <v>1.62</v>
+        <v>1.509</v>
       </c>
       <c r="M13" t="n">
-        <v>1.793</v>
+        <v>1.687</v>
       </c>
       <c r="N13" t="n">
-        <v>1.958</v>
+        <v>1.858</v>
       </c>
       <c r="O13" t="n">
-        <v>2.115</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/step_montage_table.xlsx
+++ b/data/step_montage_table.xlsx
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.75184683631875</v>
+        <v>-48.9547796876066</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.75184683631875</v>
+        <v>-38.9547796876066</v>
       </c>
       <c r="D3" t="n">
-        <v>-30.75184683631874</v>
+        <v>-28.95477968760661</v>
       </c>
       <c r="E3" t="n">
-        <v>-25.75184683631874</v>
+        <v>-23.95477968760661</v>
       </c>
       <c r="F3" t="n">
-        <v>-25.75184683631874</v>
+        <v>-23.95477968760661</v>
       </c>
       <c r="G3" t="n">
-        <v>-25.75184683631874</v>
+        <v>-23.95477968760661</v>
       </c>
       <c r="H3" t="n">
-        <v>-25.75184683631874</v>
+        <v>-23.95477968760661</v>
       </c>
       <c r="I3" t="n">
-        <v>-25.75184683631874</v>
+        <v>-23.95477968760661</v>
       </c>
       <c r="J3" t="n">
-        <v>-20.75184683631874</v>
+        <v>-18.95477968760661</v>
       </c>
       <c r="K3" t="n">
-        <v>-10.75184683631874</v>
+        <v>-8.954779687606607</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7518468363187445</v>
+        <v>1.045220312393393</v>
       </c>
       <c r="M3" t="n">
-        <v>19.24815316368126</v>
+        <v>21.04522031239339</v>
       </c>
       <c r="N3" t="n">
-        <v>39.24815316368125</v>
+        <v>41.0452203123934</v>
       </c>
       <c r="O3" t="n">
-        <v>59.24815316368125</v>
+        <v>61.0452203123934</v>
       </c>
     </row>
     <row r="4">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.11499999999999</v>
+        <v>66.627</v>
       </c>
       <c r="C5" t="n">
-        <v>70.98999999999999</v>
+        <v>61.883</v>
       </c>
       <c r="D5" t="n">
-        <v>65.663</v>
+        <v>57.776</v>
       </c>
       <c r="E5" t="n">
-        <v>63.272</v>
+        <v>55.933</v>
       </c>
       <c r="F5" t="n">
-        <v>123.12</v>
+        <v>115.38</v>
       </c>
       <c r="G5" t="n">
-        <v>90.684</v>
+        <v>83.099</v>
       </c>
       <c r="H5" t="n">
-        <v>127.508</v>
+        <v>119.753</v>
       </c>
       <c r="I5" t="n">
-        <v>95.41</v>
+        <v>87.79600000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>61.048</v>
+        <v>54.215</v>
       </c>
       <c r="K5" t="n">
-        <v>57.053</v>
+        <v>51.115</v>
       </c>
       <c r="L5" t="n">
-        <v>53.586</v>
+        <v>48.403</v>
       </c>
       <c r="M5" t="n">
-        <v>47.922</v>
+        <v>43.906</v>
       </c>
       <c r="N5" t="n">
-        <v>43.528</v>
+        <v>40.342</v>
       </c>
       <c r="O5" t="n">
-        <v>40.038</v>
+        <v>37.453</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.833</v>
+        <v>32.687</v>
       </c>
       <c r="C6" t="n">
-        <v>34.828</v>
+        <v>30.36</v>
       </c>
       <c r="D6" t="n">
-        <v>32.214</v>
+        <v>28.345</v>
       </c>
       <c r="E6" t="n">
-        <v>31.041</v>
+        <v>27.441</v>
       </c>
       <c r="F6" t="n">
-        <v>60.403</v>
+        <v>56.605</v>
       </c>
       <c r="G6" t="n">
-        <v>44.49</v>
+        <v>40.768</v>
       </c>
       <c r="H6" t="n">
-        <v>62.555</v>
+        <v>58.751</v>
       </c>
       <c r="I6" t="n">
-        <v>46.808</v>
+        <v>43.073</v>
       </c>
       <c r="J6" t="n">
-        <v>29.95</v>
+        <v>26.598</v>
       </c>
       <c r="K6" t="n">
-        <v>27.99</v>
+        <v>25.077</v>
       </c>
       <c r="L6" t="n">
-        <v>26.289</v>
+        <v>23.747</v>
       </c>
       <c r="M6" t="n">
-        <v>23.511</v>
+        <v>21.54</v>
       </c>
       <c r="N6" t="n">
-        <v>21.355</v>
+        <v>19.792</v>
       </c>
       <c r="O6" t="n">
-        <v>19.643</v>
+        <v>18.374</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2350.487</v>
+        <v>2030.809</v>
       </c>
       <c r="C7" t="n">
-        <v>2163.795</v>
+        <v>1886.211</v>
       </c>
       <c r="D7" t="n">
-        <v>2001.426</v>
+        <v>1761.028</v>
       </c>
       <c r="E7" t="n">
-        <v>1928.548</v>
+        <v>1704.853</v>
       </c>
       <c r="F7" t="n">
-        <v>1374.126</v>
+        <v>1287.741</v>
       </c>
       <c r="G7" t="n">
-        <v>1604.809</v>
+        <v>1470.579</v>
       </c>
       <c r="H7" t="n">
-        <v>1349.977</v>
+        <v>1267.872</v>
       </c>
       <c r="I7" t="n">
-        <v>1563.891</v>
+        <v>1439.088</v>
       </c>
       <c r="J7" t="n">
-        <v>1860.76</v>
+        <v>1652.488</v>
       </c>
       <c r="K7" t="n">
-        <v>1738.991</v>
+        <v>1557.999</v>
       </c>
       <c r="L7" t="n">
-        <v>1633.316</v>
+        <v>1475.337</v>
       </c>
       <c r="M7" t="n">
-        <v>1460.676</v>
+        <v>1338.267</v>
       </c>
       <c r="N7" t="n">
-        <v>1326.745</v>
+        <v>1229.635</v>
       </c>
       <c r="O7" t="n">
-        <v>1220.369</v>
+        <v>1141.578</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.467</v>
+        <v>27.187</v>
       </c>
       <c r="C8" t="n">
-        <v>28.968</v>
+        <v>25.252</v>
       </c>
       <c r="D8" t="n">
-        <v>26.794</v>
+        <v>23.576</v>
       </c>
       <c r="E8" t="n">
-        <v>25.818</v>
+        <v>22.824</v>
       </c>
       <c r="F8" t="n">
-        <v>50.24</v>
+        <v>47.081</v>
       </c>
       <c r="G8" t="n">
-        <v>37.004</v>
+        <v>33.908</v>
       </c>
       <c r="H8" t="n">
-        <v>52.029</v>
+        <v>48.866</v>
       </c>
       <c r="I8" t="n">
-        <v>38.932</v>
+        <v>35.826</v>
       </c>
       <c r="J8" t="n">
-        <v>24.911</v>
+        <v>22.123</v>
       </c>
       <c r="K8" t="n">
-        <v>23.28</v>
+        <v>20.858</v>
       </c>
       <c r="L8" t="n">
-        <v>21.866</v>
+        <v>19.751</v>
       </c>
       <c r="M8" t="n">
-        <v>19.555</v>
+        <v>17.916</v>
       </c>
       <c r="N8" t="n">
-        <v>17.762</v>
+        <v>16.462</v>
       </c>
       <c r="O8" t="n">
-        <v>16.338</v>
+        <v>15.282</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.077</v>
+        <v>4.719</v>
       </c>
       <c r="C9" t="n">
-        <v>4.429</v>
+        <v>5.081</v>
       </c>
       <c r="D9" t="n">
-        <v>4.789</v>
+        <v>5.443</v>
       </c>
       <c r="E9" t="n">
-        <v>4.97</v>
+        <v>5.622</v>
       </c>
       <c r="F9" t="n">
-        <v>6.978</v>
+        <v>7.447</v>
       </c>
       <c r="G9" t="n">
-        <v>5.973</v>
+        <v>6.519</v>
       </c>
       <c r="H9" t="n">
-        <v>7.103</v>
+        <v>7.563</v>
       </c>
       <c r="I9" t="n">
-        <v>6.13</v>
+        <v>6.662</v>
       </c>
       <c r="J9" t="n">
-        <v>5.151</v>
+        <v>5.801</v>
       </c>
       <c r="K9" t="n">
-        <v>5.512</v>
+        <v>6.153</v>
       </c>
       <c r="L9" t="n">
-        <v>5.869</v>
+        <v>6.498</v>
       </c>
       <c r="M9" t="n">
-        <v>6.564</v>
+        <v>7.165</v>
       </c>
       <c r="N9" t="n">
-        <v>7.227</v>
+        <v>7.799</v>
       </c>
       <c r="O9" t="n">
-        <v>7.858</v>
+        <v>8.401999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.629</v>
+        <v>6.517</v>
       </c>
       <c r="C10" t="n">
-        <v>6.116</v>
+        <v>7.017</v>
       </c>
       <c r="D10" t="n">
-        <v>6.612</v>
+        <v>7.516</v>
       </c>
       <c r="E10" t="n">
-        <v>6.862</v>
+        <v>7.764</v>
       </c>
       <c r="F10" t="n">
-        <v>9.637</v>
+        <v>10.285</v>
       </c>
       <c r="G10" t="n">
-        <v>8.249000000000001</v>
+        <v>9.003</v>
       </c>
       <c r="H10" t="n">
-        <v>9.81</v>
+        <v>10.446</v>
       </c>
       <c r="I10" t="n">
-        <v>8.465</v>
+        <v>9.201000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7.113</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>7.612</v>
+        <v>8.497</v>
       </c>
       <c r="L10" t="n">
-        <v>8.105</v>
+        <v>8.974</v>
       </c>
       <c r="M10" t="n">
-        <v>9.065</v>
+        <v>9.896000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>9.981999999999999</v>
+        <v>10.772</v>
       </c>
       <c r="O10" t="n">
-        <v>10.854</v>
+        <v>11.606</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.605</v>
+        <v>4.173</v>
       </c>
       <c r="C11" t="n">
-        <v>3.916</v>
+        <v>4.493</v>
       </c>
       <c r="D11" t="n">
-        <v>4.234</v>
+        <v>4.812</v>
       </c>
       <c r="E11" t="n">
-        <v>4.394</v>
+        <v>4.971</v>
       </c>
       <c r="F11" t="n">
-        <v>6.169</v>
+        <v>6.584</v>
       </c>
       <c r="G11" t="n">
-        <v>5.281</v>
+        <v>5.764</v>
       </c>
       <c r="H11" t="n">
-        <v>6.28</v>
+        <v>6.687</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42</v>
+        <v>5.89</v>
       </c>
       <c r="J11" t="n">
-        <v>4.554</v>
+        <v>5.129</v>
       </c>
       <c r="K11" t="n">
-        <v>4.873</v>
+        <v>5.44</v>
       </c>
       <c r="L11" t="n">
-        <v>5.189</v>
+        <v>5.745</v>
       </c>
       <c r="M11" t="n">
-        <v>5.803</v>
+        <v>6.335</v>
       </c>
       <c r="N11" t="n">
-        <v>6.39</v>
+        <v>6.895</v>
       </c>
       <c r="O11" t="n">
-        <v>6.948</v>
+        <v>7.428</v>
       </c>
     </row>
     <row r="12">
@@ -1002,46 +1002,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.788</v>
+        <v>5.542</v>
       </c>
       <c r="C12" t="n">
-        <v>5.201</v>
+        <v>5.968</v>
       </c>
       <c r="D12" t="n">
-        <v>5.624</v>
+        <v>6.392</v>
       </c>
       <c r="E12" t="n">
-        <v>5.836</v>
+        <v>6.603</v>
       </c>
       <c r="F12" t="n">
-        <v>8.195</v>
+        <v>8.746</v>
       </c>
       <c r="G12" t="n">
-        <v>7.015</v>
+        <v>7.657</v>
       </c>
       <c r="H12" t="n">
-        <v>8.342000000000001</v>
+        <v>8.884</v>
       </c>
       <c r="I12" t="n">
-        <v>7.199</v>
+        <v>7.825</v>
       </c>
       <c r="J12" t="n">
-        <v>6.049</v>
+        <v>6.813</v>
       </c>
       <c r="K12" t="n">
-        <v>6.473</v>
+        <v>7.227</v>
       </c>
       <c r="L12" t="n">
-        <v>6.893</v>
+        <v>7.632</v>
       </c>
       <c r="M12" t="n">
-        <v>7.709</v>
+        <v>8.414999999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>8.489000000000001</v>
+        <v>9.161</v>
       </c>
       <c r="O12" t="n">
-        <v>9.23</v>
+        <v>9.869</v>
       </c>
     </row>
     <row r="13">
@@ -1051,46 +1051,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.049</v>
+        <v>1.214</v>
       </c>
       <c r="C13" t="n">
-        <v>1.139</v>
+        <v>1.307</v>
       </c>
       <c r="D13" t="n">
-        <v>1.231</v>
+        <v>1.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.278</v>
+        <v>1.446</v>
       </c>
       <c r="F13" t="n">
-        <v>1.794</v>
+        <v>1.914</v>
       </c>
       <c r="G13" t="n">
-        <v>1.536</v>
+        <v>1.676</v>
       </c>
       <c r="H13" t="n">
-        <v>1.826</v>
+        <v>1.944</v>
       </c>
       <c r="I13" t="n">
-        <v>1.576</v>
+        <v>1.713</v>
       </c>
       <c r="J13" t="n">
-        <v>1.325</v>
+        <v>1.492</v>
       </c>
       <c r="K13" t="n">
-        <v>1.417</v>
+        <v>1.582</v>
       </c>
       <c r="L13" t="n">
-        <v>1.509</v>
+        <v>1.671</v>
       </c>
       <c r="M13" t="n">
-        <v>1.687</v>
+        <v>1.842</v>
       </c>
       <c r="N13" t="n">
-        <v>1.858</v>
+        <v>2.005</v>
       </c>
       <c r="O13" t="n">
-        <v>2.02</v>
+        <v>2.159</v>
       </c>
     </row>
   </sheetData>
